--- a/opset_22/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
+++ b/opset_22/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
@@ -6330,7 +6330,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-29 10:47:35</t>
+          <t>2025-11-18 14:40:26</t>
         </is>
       </c>
     </row>

--- a/opset_22/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
+++ b/opset_22/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
@@ -6330,7 +6330,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-11-18 14:40:26</t>
+          <t>2025-11-18 14:53:27</t>
         </is>
       </c>
     </row>
